--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2377533.896397392</v>
+        <v>2481713.530848463</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>92.47445699814216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.99255965255607</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.7920622011388</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>201.6090651341251</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>242.6337954275693</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.93482921065007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.3654827743561</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>56.22992883261846</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>64.9210906006349</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>87.05433370913497</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>148.5787809024412</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560553</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>58.4755966451444</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9792024346633</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5981994227938</v>
+        <v>100.4429877184271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5683894512305</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>268.0283327644028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.54416032354898</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>33.01627976944194</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>94.80184639741351</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>234.7133634178559</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>166.8663745188117</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4564809702501</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>46.86766651429448</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0.4774956074570627</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0992099793456</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>146.0535160667532</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.3452334219998</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C4" t="n">
-        <v>528.3452334219998</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1861.645497934395</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1669.959613761222</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1448.192998330748</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1448.192998330748</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1448.192998330748</v>
+        <v>1248.958336287563</v>
       </c>
       <c r="W4" t="n">
-        <v>1158.775828293787</v>
+        <v>959.5411662506019</v>
       </c>
       <c r="X4" t="n">
-        <v>930.7862773957696</v>
+        <v>731.5516153525846</v>
       </c>
       <c r="Y4" t="n">
-        <v>709.9936982522395</v>
+        <v>510.7590362090544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1565.4402645816</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1565.4402645816</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906801</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645721</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645721</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4635,28 +4637,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676408</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696235</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>231.8553933260934</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3268.807913697436</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2006.398526988078</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2006.398526988078</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,37 +4886,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.2719172712683</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C10" t="n">
-        <v>301.3357343433614</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>301.3357343433614</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>301.3357343433614</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>154.4457868454511</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>154.4457868454511</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y10" t="n">
-        <v>651.920382101508</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,46 +5044,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5281,7 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349515</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958744</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679675</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556317</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556317</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556317</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261141</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>532.5350811160199</v>
+        <v>1055.185257670615</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>886.2490747427084</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="W19" t="n">
-        <v>1162.965675987807</v>
+        <v>1685.615852542402</v>
       </c>
       <c r="X19" t="n">
-        <v>934.9761250897898</v>
+        <v>1457.626301644385</v>
       </c>
       <c r="Y19" t="n">
-        <v>714.1835459462596</v>
+        <v>1236.833722500855</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,28 +5770,28 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349515</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2526.197884723914</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703119</v>
+        <v>3006.417838136244</v>
       </c>
       <c r="C22" t="n">
-        <v>526.565882642405</v>
+        <v>2837.481655208337</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300692</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E22" t="n">
-        <v>376.4492432300692</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F22" t="n">
-        <v>376.4492432300692</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G22" t="n">
-        <v>209.2531439449492</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>3455.199968177791</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>3227.210417279774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>3006.417838136244</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>651.5752442188636</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>503.6621506364705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>356.7722031385601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>189.5761038534401</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C28" t="n">
-        <v>2728.681365661312</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661312</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661312</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>3945.072255293151</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>3655.65508525619</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>3427.665534358173</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>3206.872955214643</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2211.365486379318</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1991.764021402259</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2091.550948547921</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7019,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>430.7826650753331</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>282.8695714929399</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429802</v>
@@ -7327,55 +7329,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>4101.537227310364</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4101.537227310364</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2232.388575724832</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797183</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>2965.647484649469</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>2796.711301721562</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7297566303649</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797183</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797183</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>4429.254964419905</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>4140.179737764103</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>3885.495249558217</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>3596.078079521256</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>3368.088528623239</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>3147.295949479709</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.3563835367929</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42624789262493</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9259388694750044</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.04708356698181</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>18.49466557218824</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>106.0713126946634</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.2784330767819</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.49286644881035</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>17.4242799059721</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.15991148283285</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>112.9489693570382</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.5487903941875</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>112.6104454096916</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>34.97276993489137</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="15">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448193</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
@@ -26338,22 +26340,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316941</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181805</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26485,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973353</v>
+        <v>-891945.2695973358</v>
       </c>
       <c r="C6" t="n">
+        <v>436799.4761302568</v>
+      </c>
+      <c r="D6" t="n">
         <v>436799.4761302565</v>
       </c>
-      <c r="D6" t="n">
-        <v>436799.4761302568</v>
-      </c>
       <c r="E6" t="n">
-        <v>186616.7029466742</v>
+        <v>186616.7029466745</v>
       </c>
       <c r="F6" t="n">
+        <v>512029.1647540297</v>
+      </c>
+      <c r="G6" t="n">
+        <v>512029.1647540295</v>
+      </c>
+      <c r="H6" t="n">
         <v>512029.1647540298</v>
       </c>
-      <c r="G6" t="n">
-        <v>512029.1647540297</v>
-      </c>
-      <c r="H6" t="n">
-        <v>512029.1647540297</v>
-      </c>
       <c r="I6" t="n">
-        <v>512029.1647540298</v>
+        <v>512029.1647540295</v>
       </c>
       <c r="J6" t="n">
-        <v>294497.9623567525</v>
+        <v>294497.9623567522</v>
       </c>
       <c r="K6" t="n">
-        <v>512029.1647540295</v>
+        <v>512029.1647540294</v>
       </c>
       <c r="L6" t="n">
         <v>512029.1647540297</v>
       </c>
       <c r="M6" t="n">
-        <v>426974.1368185176</v>
+        <v>426974.136818518</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540294</v>
+        <v>512029.1647540298</v>
       </c>
       <c r="O6" t="n">
+        <v>512029.1647540295</v>
+      </c>
+      <c r="P6" t="n">
         <v>512029.1647540297</v>
-      </c>
-      <c r="P6" t="n">
-        <v>512029.1647540298</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973564</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022922</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>277.2566436803269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>23.93959301749128</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>86.34558112268923</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>181.1247765293555</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>112.0492461931136</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.8971509712872</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.77216054947189</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.95783295555738</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>304.8100100778341</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.70068120518582</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>70.00587244965362</v>
       </c>
     </row>
     <row r="11">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899852</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936909</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
@@ -32339,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,34 +32551,34 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.1165249313359</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32795,19 +32797,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>567.5882829286707</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>555.0107214892107</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.1165249313368</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>297.1808238847171</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>754.000239683233</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>493.6049778318521</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066519</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103576</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.13475084531435</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36445,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>423.6690094058774</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>159.3393849103582</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998997</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>359.6305704175218</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2481713.530848463</v>
+        <v>2477700.920834471</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.78083674902027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,16 +876,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>165.7920622011388</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.6090651341251</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>352.5069291089545</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>273.1222025221964</v>
       </c>
       <c r="V7" t="n">
-        <v>199.3654827743561</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>228.0656025585486</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.22992883261846</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039671</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.5787809024412</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.4755966451444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>100.4429877184271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>105.5683894512305</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>42.54416032354898</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>94.80184639741351</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V28" t="n">
-        <v>234.7133634178559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.8663745188117</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>104.4564809702501</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4774956074570627</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>113.0992099793456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.0535160667532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>137.4337101450031</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>11.56087338713452</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450753</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.7590362090544</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1248.958336287563</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="W4" t="n">
-        <v>959.5411662506019</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X4" t="n">
-        <v>731.5516153525846</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.7590362090544</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1546.221676928587</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013482</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1651.413535439809</v>
       </c>
       <c r="V7" t="n">
-        <v>1155.296064268838</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3268.807913697436</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3062.830166081658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3062.830166081658</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2798542473295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1127.007895746702</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X10" t="n">
-        <v>1127.007895746702</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.9283190775692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>336.9860575577204</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>886.2490747427084</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1236.833722500855</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136244</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>2837.481655208337</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>2794.50775589162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>801.6918836311994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>651.5752442188636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>503.6621506364705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>356.7722031385601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>189.5761038534401</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3025.224490384403</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3945.072255293151</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3655.65508525619</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3427.665534358173</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3206.872955214643</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.841029837709</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>782.841029837709</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2211.365486379318</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1991.764021402259</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1702.688794746457</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1702.688794746457</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1413.271624709496</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.282073811479</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.4894946679487</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397185</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2091.550948547921</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2091.550948547921</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342034</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.073881198504</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1326.656711161544</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.667160263526</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4101.537227310364</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4101.537227310364</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2232.388575724832</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2012.787110747773</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1723.711884091971</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2965.647484649469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2796.711301721562</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4429.254964419905</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4140.179737764103</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3885.495249558217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3596.078079521256</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3368.088528623239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3147.295949479709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.3563835367929</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.0811505738417</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>43.04708356698181</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>106.0713126946634</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>45.49286644881035</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V28" t="n">
-        <v>17.4242799059721</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>14.15991148283285</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>112.9489693570382</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>180.5487903941875</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.6104454096916</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>34.97276993489137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>148.7507642442411</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>205.8445769401537</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973358</v>
+        <v>-891945.2695973353</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302568</v>
+        <v>436799.4761302574</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302565</v>
+        <v>436799.4761302564</v>
       </c>
       <c r="E6" t="n">
-        <v>186616.7029466745</v>
+        <v>186269.3236923175</v>
       </c>
       <c r="F6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="G6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996726</v>
       </c>
       <c r="H6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="I6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="J6" t="n">
-        <v>294497.9623567522</v>
+        <v>294150.583102395</v>
       </c>
       <c r="K6" t="n">
-        <v>512029.1647540294</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="L6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="M6" t="n">
-        <v>426974.136818518</v>
+        <v>426626.7575641607</v>
       </c>
       <c r="N6" t="n">
-        <v>512029.1647540298</v>
+        <v>511681.7854996727</v>
       </c>
       <c r="O6" t="n">
-        <v>512029.1647540295</v>
+        <v>511681.7854996725</v>
       </c>
       <c r="P6" t="n">
-        <v>512029.1647540297</v>
+        <v>511681.7854996727</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>86.34558112268923</v>
+        <v>209.2755498368811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.1247765293555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>29.42344096330731</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.08963568341647</v>
       </c>
       <c r="V7" t="n">
-        <v>52.77216054947189</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>154.6682391049319</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>52.95783295555738</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944138</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.00587244965362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>555.0107214892107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>493.6049778318521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>231.5286848890169</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>423.6690094058774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>359.6305704175218</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>92.97430510914269</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2477700.920834471</v>
+        <v>2479461.451137255</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -876,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>352.5069291089545</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>352.5069291089545</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>152.9361725756116</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>273.1222025221964</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.0656025585486</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>256.2534865485216</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039671</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881268</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>31.24750433886365</v>
       </c>
     </row>
     <row r="14">
@@ -1663,10 +1663,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>145.0891016767038</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>108.6115798077505</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>43.3482415786093</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>209.5844008505285</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>137.4337101450031</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4330,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4524,16 +4524,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1091.613680441807</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1091.613680441807</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1091.613680441807</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="5">
@@ -4546,10 +4546,10 @@
         <v>1904.487375535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535338</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.221676928587</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
         <v>1190.154071768027</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>981.0661490344795</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>812.1299661065726</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>662.0133266942369</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>514.1002331118437</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>367.2102856139334</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143257</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1651.413535439809</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1162.714613864719</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1522.390776791884</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1164.125078185134</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>778.3368255868895</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>367.350920797282</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4822,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4941,22 +4941,22 @@
         <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518386</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395028</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571097</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591993</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339183</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177607</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5001,7 +5001,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051533</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
         <v>1409.887827153515</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075797</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5299,19 +5299,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5971,46 +5971,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
         <v>484.8112968429803</v>
@@ -6375,13 +6375,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925216</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>444.7013164925216</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>277.5052172074016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>187.3371490132311</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>107.0485416471242</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600924</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>76.60007353871563</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>148.7507642442411</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798556.87003299</v>
+        <v>798556.8700329901</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798556.8700329901</v>
+        <v>798556.87003299</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="H2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597547</v>
@@ -26343,16 +26343,16 @@
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597546</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891945.2695973353</v>
+        <v>-891945.269597336</v>
       </c>
       <c r="C6" t="n">
-        <v>436799.4761302574</v>
+        <v>436799.4761302567</v>
       </c>
       <c r="D6" t="n">
-        <v>436799.4761302564</v>
+        <v>436799.4761302567</v>
       </c>
       <c r="E6" t="n">
-        <v>186269.3236923175</v>
+        <v>186581.9650212392</v>
       </c>
       <c r="F6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285934</v>
       </c>
       <c r="G6" t="n">
-        <v>511681.7854996726</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="H6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.426828594</v>
       </c>
       <c r="I6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="J6" t="n">
-        <v>294150.583102395</v>
+        <v>294463.2244313162</v>
       </c>
       <c r="K6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285939</v>
       </c>
       <c r="L6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="M6" t="n">
-        <v>426626.7575641607</v>
+        <v>426939.398893082</v>
       </c>
       <c r="N6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="O6" t="n">
-        <v>511681.7854996725</v>
+        <v>511994.4268285938</v>
       </c>
       <c r="P6" t="n">
-        <v>511681.7854996727</v>
+        <v>511994.4268285939</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>209.2755498368811</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>12.76596266205308</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.42344096330731</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.08963568341659</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>13.08963568341647</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.6682391049319</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>154.6682391049318</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944138</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
